--- a/output.xlsx
+++ b/output.xlsx
@@ -32,12 +32,24 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,12 +70,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,13 +443,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -481,16 +505,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>69448</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JESSIKA</t>
+          <t>NICOLAY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PATRICIA RIVERA CORREA</t>
+          <t>ALEX PONCE FREYRE</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -498,25 +522,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>06:08:16</t>
+          <t>06:24:36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>17:29:48</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69449</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NICOLAY</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ALEX PONCE FREYRE</t>
+          <t>QUILA TRUJILLO</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
@@ -524,59 +552,83 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>06:24:36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>06:57:43</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>13:00:58</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>14:01:08</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17:02:29</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69450</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FREDDY</t>
+          <t>STEPHANY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ANTONIO SILVA VARGAS</t>
+          <t>LOSADA FIGUEROA</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
         <v>45714</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>06:30:10</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>09:56:09</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>13:01:21</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>14:00:04</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>18:59:20</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>69451</v>
+        <v>23</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FREDDY</t>
+          <t>DAVID</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ANTONIO SILVA VARGAS</t>
+          <t>ESTEBAN ARTEAGA</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
         <v>45714</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>06:30:13</t>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>08:09:52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -585,42 +637,46 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69452</v>
+        <v>24</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SOLANGIE</t>
+          <t>GENNY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PINCHAO RODRIGUEZ</t>
+          <t>NOHEMI MARTINEZ MARTINEZ</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
         <v>45714</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>06:48:06</t>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>08:48:33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>18:43:22</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>69453</v>
+        <v>32</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SOLANGIE</t>
+          <t>ANDRES</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PINCHAO RODRIGUEZ</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -628,25 +684,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>06:48:08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+          <t>07:58:00</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>12:01:55</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>13:00:02</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>17:03:55</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>69454</v>
+        <v>48</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MARCELA</t>
+          <t>YIRETH</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ANAZCO HOYOS</t>
+          <t>SERNA HUESAQUILLO</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
@@ -654,25 +722,37 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>06:55:59</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+          <t>06:57:50</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>12:04:35</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>13:04:40</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>16:01:01</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>69455</v>
+        <v>51</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JANETH</t>
+          <t>PAULA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TABORDA CANO</t>
+          <t>ANDREA ORDONEZ CABRERA</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -680,25 +760,37 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>06:56:10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t>06:58:47</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>12:01:09</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>13:00:36</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>16:00:46</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>69456</v>
+        <v>60</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ERIKA</t>
+          <t>JANETH</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DAYANA BENAVIDES HOYOS</t>
+          <t>TABORDA CANO</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
@@ -706,25 +798,37 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>06:56:43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+          <t>06:56:10</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>12:00:51</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>13:00:13</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>17:01:59</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>69457</v>
+        <v>61</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ERIKA</t>
+          <t>JESSIKA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DAYANA BENAVIDES HOYOS</t>
+          <t>PATRICIA RIVERA CORREA</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
@@ -732,25 +836,37 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>06:56:45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+          <t>06:08:16</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>12:00:56</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>13:00:06</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>16:20:27</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>69458</v>
+        <v>62</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>JEZI</t>
+          <t>ERIKA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>KARIME ZUNIGA ORDONEZ</t>
+          <t>DAYANA BENAVIDES HOYOS</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -758,25 +874,37 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>06:56:49</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+          <t>06:56:43</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>12:01:14</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>13:00:20</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>17:01:54</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>69459</v>
+        <v>69</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MARCO</t>
+          <t>DIEGO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SINISTERRA CAICEDO</t>
+          <t>FERNANDO OSORIO ALTAMIRANO</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -784,25 +912,37 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>06:56:56</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+          <t>07:57:36</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>13:02:33</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>13:59:50</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>18:00:34</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>69460</v>
+        <v>72</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
+          <t>FREDDY</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ADOLFO PRECIADO CORTES</t>
+          <t>ANTONIO SILVA VARGAS</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -810,25 +950,37 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>06:57:36</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+          <t>06:30:10</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>12:41:40</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>13:45:30</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>16:32:02</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>69461</v>
+        <v>87</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>QUILA TRUJILLO</t>
+          <t>JOSE BECERRA BERMUDEZ</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -836,25 +988,37 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>06:57:43</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+          <t>07:58:12</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>12:36:51</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>13:34:02</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>17:01:17</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>69462</v>
+        <v>90</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>YIRETH</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SERNA HUESAQUILLO</t>
+          <t>SINISTERRA CAICEDO</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -862,25 +1026,37 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>06:57:50</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+          <t>06:56:56</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>12:02:12</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>13:02:12</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>16:07:01</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>69463</v>
+        <v>92</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PAULA</t>
+          <t>MARCELA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ANDREA ORDONEZ CABRERA</t>
+          <t>ANAZCO HOYOS</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -888,16 +1064,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>06:58:47</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+          <t>06:55:59</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>12:01:01</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>13:00:25</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>17:01:39</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>69464</v>
+        <v>95</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -917,22 +1105,34 @@
           <t>07:53:34</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>13:06:44</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>14:05:23</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>17:07:41</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>69465</v>
+        <v>96</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DIEGO</t>
+          <t>SOLANGIE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FERNANDO OSORIO ALTAMIRANO</t>
+          <t>PINCHAO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
@@ -940,25 +1140,37 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>07:57:36</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+          <t>06:48:06</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>13:06:12</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>14:07:45</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>69466</v>
+        <v>99</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ESTEBAN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SEBASTIAN RINCONSANCHEZ</t>
+          <t>TABARES</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -966,51 +1178,75 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>07:57:46</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+          <t>07:57:55</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>12:34:58</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>13:34:21</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>17:01:04</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>69467</v>
+        <v>100</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>KATHERINE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SEBASTIAN RINCONSANCHEZ</t>
+          <t>CARDONA CAICEDO</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
         <v>45714</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>07:57:48</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>09:56:14</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>13:36:23</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>14:31:17</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>18:59:52</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>69468</v>
+        <v>102</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ESTEBAN</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TABARES</t>
+          <t>SEBASTIAN RINCONSANCHEZ</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -1018,25 +1254,37 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>07:57:55</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+          <t>07:57:46</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>12:31:56</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>13:31:15</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>17:03:10</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>69469</v>
+        <v>104</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ANDRES</t>
+          <t>JEZI</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>KARIME ZUNIGA ORDONEZ</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
@@ -1044,25 +1292,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>07:58:00</t>
+          <t>06:56:49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>13:07:24</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>69470</v>
+        <v>105</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>DEIVI</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>JOSE BECERRA BERMUDEZ</t>
+          <t>PATRICIA IBARRA SIMALES</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -1070,51 +1322,67 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>07:58:12</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+          <t>07:58:27</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>13:02:38</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>13:59:54</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>18:00:53</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>69471</v>
+        <v>106</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ANGIE</t>
+          <t>HELEN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MARLYN RODRIGUEZ DIAZ</t>
+          <t>MARIA VASQUEZ ANACONA</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
         <v>45714</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>07:58:20</t>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>08:28:23</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>15:01:30</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>69472</v>
+        <v>107</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DEIVI</t>
+          <t>ANGIE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PATRICIA IBARRA SIMALES</t>
+          <t>MARLYN RODRIGUEZ DIAZ</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
@@ -1122,25 +1390,37 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>07:58:27</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+          <t>07:58:20</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>12:31:45</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>13:30:05</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>17:01:45</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>69473</v>
+        <v>108</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>GUSTAVO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BAHOS LUGO</t>
+          <t>ADOLFO PRECIADO CORTES</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
@@ -1148,122 +1428,62 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>07:58:42</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+          <t>06:57:36</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>12:57:41</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>13:58:15</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>16:02:06</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>69474</v>
+        <v>109</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DAVID</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ESTEBAN ARTEAGA</t>
+          <t>BAHOS LUGO</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
         <v>45714</v>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>69475</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>HELEN</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>MARIA VASQUEZ ANACONA</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>45714</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>69476</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>GENNY</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>NOHEMI MARTINEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>45714</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>69477</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>STEPHANY</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>LOSADA FIGUEROA</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>45714</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>69478</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>KATHERINE</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>CARDONA CAICEDO</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>45714</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>07:58:42</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>12:01:23</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>13:00:30</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>17:03:05</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
